--- a/Data/Entities/OpenNGS/OpenNGS.Achievement.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Achievement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowHeight="17655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -16,12 +16,25 @@
   <definedNames>
     <definedName name="B">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="135">
   <si>
     <t>Package</t>
   </si>
@@ -53,349 +66,385 @@
     <t>OpenNGS.Achievement.Common</t>
   </si>
   <si>
+    <t>Achievement_Status</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>成就状态</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Achievement_Result</t>
+  </si>
+  <si>
+    <t>成就系统结果</t>
+  </si>
+  <si>
+    <t>OpenNGS.Achievement.Data</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>Struct</t>
+  </si>
+  <si>
+    <t>玩家成就配置结构</t>
+  </si>
+  <si>
+    <t>Client;Server</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>AchievementAward</t>
+  </si>
+  <si>
+    <t>奖励数据</t>
+  </si>
+  <si>
+    <t>AchievementState</t>
+  </si>
+  <si>
+    <t>奖励存档数据</t>
+  </si>
+  <si>
+    <t>OpenNGS.Achievement.Service</t>
+  </si>
+  <si>
+    <t>GetAchievementRewardReq</t>
+  </si>
+  <si>
+    <t>领取成就奖励请求</t>
+  </si>
+  <si>
+    <t>CS;SS</t>
+  </si>
+  <si>
+    <t>GetAchievementRewardRsp</t>
+  </si>
+  <si>
+    <t>领取成就奖励响应</t>
+  </si>
+  <si>
+    <t>UpdateAchievementReq</t>
+  </si>
+  <si>
+    <t>成就值改变请求</t>
+  </si>
+  <si>
+    <t>UpdateAchievementRsp</t>
+  </si>
+  <si>
+    <t>成就值改变响应</t>
+  </si>
+  <si>
+    <t>GetAchievementsReq</t>
+  </si>
+  <si>
+    <t>获取成就列表请求</t>
+  </si>
+  <si>
+    <t>GetAchievementsRsp</t>
+  </si>
+  <si>
+    <t>获取成就列表响应</t>
+  </si>
+  <si>
+    <t>NiAchievementService</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>玩家成就服务(to server)</t>
+  </si>
+  <si>
+    <t>OpenNGS.Achievement.DB</t>
+  </si>
+  <si>
+    <t>AchievementInfoRecord</t>
+  </si>
+  <si>
+    <t>玩家成就数据库表</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>uin, id</t>
+  </si>
+  <si>
+    <t>index(uin)</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>uin</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>所有者ID</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>成就id</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>成就值</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>MethodName</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>GetAchievementReward</t>
+  </si>
+  <si>
+    <t>获取成就奖励</t>
+  </si>
+  <si>
+    <t>UpdateAchievement</t>
+  </si>
+  <si>
+    <t>统计值更新</t>
+  </si>
+  <si>
+    <t>GetAchievements</t>
+  </si>
+  <si>
+    <t>获取成就列表</t>
+  </si>
+  <si>
+    <t>playerID</t>
+  </si>
+  <si>
+    <t>玩家的唯一标识</t>
+  </si>
+  <si>
+    <t>achievementStates</t>
+  </si>
+  <si>
+    <t>AchievementState[]</t>
+  </si>
+  <si>
+    <t>玩家成就列表</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>当前进度</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>更新结果</t>
+  </si>
+  <si>
+    <t>成就ID</t>
+  </si>
+  <si>
+    <t>领取结果</t>
+  </si>
+  <si>
+    <t>分组ID</t>
+  </si>
+  <si>
+    <t>StatID</t>
+  </si>
+  <si>
+    <t>统计规则ID</t>
+  </si>
+  <si>
+    <t>StatValue</t>
+  </si>
+  <si>
+    <t>统计数值</t>
+  </si>
+  <si>
+    <t>IsHide</t>
+  </si>
+  <si>
+    <t>隐藏成就</t>
+  </si>
+  <si>
+    <t>SubAchievement</t>
+  </si>
+  <si>
+    <t>uint32[]</t>
+  </si>
+  <si>
+    <t>子成就</t>
+  </si>
+  <si>
+    <t>NGSText</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>AwardGroupID</t>
+  </si>
+  <si>
+    <t>奖励组ID</t>
+  </si>
+  <si>
+    <t>IconPath</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>成就Icon路径</t>
+  </si>
+  <si>
+    <t>组ID</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>物品ID列表</t>
+  </si>
+  <si>
+    <t>Counts</t>
+  </si>
+  <si>
+    <t>物品数量列表</t>
+  </si>
+  <si>
+    <t>PlayerID</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>UnlockTime</t>
+  </si>
+  <si>
+    <t>成就解锁的时间。</t>
+  </si>
+  <si>
+    <t>Achievement_Result_None</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>AchievementResult_Success</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>AchievementResult_Fail_NotExist</t>
+  </si>
+  <si>
+    <t>成就不存在</t>
+  </si>
+  <si>
+    <t>AchievementResult_Fail_NoCounts</t>
+  </si>
+  <si>
+    <t>数量不对</t>
+  </si>
+  <si>
+    <t>AchievementResult_Fail_ErrorItem</t>
+  </si>
+  <si>
+    <t>错误物品</t>
+  </si>
+  <si>
+    <t>AchievementResult_Fail_HasGet</t>
+  </si>
+  <si>
+    <t>奖励已经领取</t>
+  </si>
+  <si>
+    <t>Achievement_Status_None</t>
+  </si>
+  <si>
+    <t>Achievement_Status_Stating</t>
+  </si>
+  <si>
+    <t>统计中</t>
+  </si>
+  <si>
+    <t>Achievement_Status_Pending</t>
+  </si>
+  <si>
+    <t>待领取</t>
+  </si>
+  <si>
+    <t>Achievement_Status_Done</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>AchievementInfo</t>
+  </si>
+  <si>
+    <t>成就数值</t>
+  </si>
+  <si>
     <t>ACHIEVEMENT_STATUS</t>
-  </si>
-  <si>
-    <t>Enum</t>
-  </si>
-  <si>
-    <t>成就状态</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>AchievementInfo</t>
-  </si>
-  <si>
-    <t>Struct</t>
-  </si>
-  <si>
-    <t>玩家成就</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>OpenNGS.Achievement.DB</t>
-  </si>
-  <si>
-    <t>AchievementInfoRecord</t>
-  </si>
-  <si>
-    <t>玩家成就数据库表</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>uin, id</t>
-  </si>
-  <si>
-    <t>index(uin)</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>OpenNGS.Achievement.Service</t>
-  </si>
-  <si>
-    <t>GetAchievementRewardReq</t>
-  </si>
-  <si>
-    <t>领取成就奖励请求</t>
-  </si>
-  <si>
-    <t>CS;SS</t>
-  </si>
-  <si>
-    <t>GetAchievementRewardRsp</t>
-  </si>
-  <si>
-    <t>领取成就奖励响应</t>
-  </si>
-  <si>
-    <t>AchievementDataChangedReq</t>
-  </si>
-  <si>
-    <t>成就值改变请求</t>
-  </si>
-  <si>
-    <t>AchievementDataChangedRsp</t>
-  </si>
-  <si>
-    <t>成就值改变响应</t>
-  </si>
-  <si>
-    <t>NiAchievementService</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>玩家成就服务(to server)</t>
-  </si>
-  <si>
-    <t>OpenNGS.Achievement.Data</t>
-  </si>
-  <si>
-    <t>Achievement</t>
-  </si>
-  <si>
-    <t>玩家成就配置结构</t>
-  </si>
-  <si>
-    <t>Client;Server</t>
-  </si>
-  <si>
-    <t>AchievementAward</t>
-  </si>
-  <si>
-    <t>奖励数据</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT</t>
-  </si>
-  <si>
-    <t>成就系统结果</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>uin</t>
-  </si>
-  <si>
-    <t>uint64</t>
-  </si>
-  <si>
-    <t>所有者ID</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>成就id</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>成就值</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>UIN</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>要获取奖励的表格ID</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>response result</t>
-  </si>
-  <si>
-    <t>achi</t>
-  </si>
-  <si>
-    <t>玩家成就信息</t>
-  </si>
-  <si>
-    <t>成就的id</t>
-  </si>
-  <si>
-    <t>更新的最新值</t>
-  </si>
-  <si>
-    <t>MethodName</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>GetAchievementReward</t>
-  </si>
-  <si>
-    <t>获取成就奖励</t>
-  </si>
-  <si>
-    <t>AchievementDataChanged</t>
-  </si>
-  <si>
-    <t>统计值更新</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>分组ID</t>
-  </si>
-  <si>
-    <t>StatID</t>
-  </si>
-  <si>
-    <t>统计规则ID</t>
-  </si>
-  <si>
-    <t>StatValue</t>
-  </si>
-  <si>
-    <t>统计数值</t>
-  </si>
-  <si>
-    <t>IsHide</t>
-  </si>
-  <si>
-    <t>隐藏成就</t>
-  </si>
-  <si>
-    <t>SubAchievement</t>
-  </si>
-  <si>
-    <t>uint32[]</t>
-  </si>
-  <si>
-    <t>子成就</t>
-  </si>
-  <si>
-    <t>SubSameOwner</t>
-  </si>
-  <si>
-    <t>子成就需要相同所有者</t>
-  </si>
-  <si>
-    <t>NGSText</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>AwardGroupID</t>
-  </si>
-  <si>
-    <t>奖励组ID</t>
-  </si>
-  <si>
-    <t>IconPath</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>成就Icon路径</t>
-  </si>
-  <si>
-    <t>组ID</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>物品ID</t>
-  </si>
-  <si>
-    <t>Counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物品数量 </t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT_NONE</t>
-  </si>
-  <si>
-    <t>空</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT_ACHI_NOT_EXIST</t>
-  </si>
-  <si>
-    <t>成就不存在</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT_AWARD_HAS_GOT</t>
-  </si>
-  <si>
-    <t>奖励已经领取</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT_AWARD_SUCCESS</t>
-  </si>
-  <si>
-    <t>领取成功</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT_AWARD_NOCOUNTS</t>
-  </si>
-  <si>
-    <t>数量不对</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_RESULT_AWARD_ERROR_ITEMS</t>
-  </si>
-  <si>
-    <t>错误物品</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_STATUS_NONE</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_STATUS_STATING</t>
-  </si>
-  <si>
-    <t>统计中</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_STATUS_PENDING</t>
-  </si>
-  <si>
-    <t>待领取</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENT_STATUS_DONE</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>成就数值</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -403,7 +452,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -428,7 +477,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <strike/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -445,34 +507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -486,14 +520,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,6 +559,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,13 +624,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,32 +678,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -652,19 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,31 +708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +744,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -742,7 +768,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +852,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -801,7 +869,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -952,6 +1020,34 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="1"/>
@@ -963,16 +1059,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,6 +1100,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,152 +1173,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1255,6 +1364,15 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1264,71 +1382,80 @@
     <xf numFmtId="176" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="65">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -1691,148 +1818,6 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
         <family val="2"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="9"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-        <family val="2"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2089,16 +2074,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2155,7 +2140,7 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399945066682943"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
@@ -2206,8 +2191,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799951170384838"/>
-          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
@@ -2241,8 +2226,8 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799951170384838"/>
-          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
       <border>
@@ -2256,23 +2241,23 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="69"/>
-      <tableStyleElement type="headerRow" dxfId="68"/>
-      <tableStyleElement type="totalRow" dxfId="67"/>
-      <tableStyleElement type="firstColumn" dxfId="66"/>
-      <tableStyleElement type="lastColumn" dxfId="65"/>
-      <tableStyleElement type="firstRowStripe" dxfId="64"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="63"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="totalRow" dxfId="55"/>
+      <tableStyleElement type="firstColumn" dxfId="54"/>
+      <tableStyleElement type="lastColumn" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset4_Dark" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="76"/>
-      <tableStyleElement type="headerRow" dxfId="75"/>
-      <tableStyleElement type="totalRow" dxfId="74"/>
-      <tableStyleElement type="firstColumn" dxfId="73"/>
-      <tableStyleElement type="lastColumn" dxfId="72"/>
-      <tableStyleElement type="firstRowStripe" dxfId="71"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="70"/>
+    <tableStyle name="TableStylePreset4_Dark" pivot="0" count="7" xr9:uid="{A81DCE68-96CC-47DE-8847-DD6B0B4E8B69}">
+      <tableStyleElement type="wholeTable" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="totalRow" dxfId="62"/>
+      <tableStyleElement type="firstColumn" dxfId="61"/>
+      <tableStyleElement type="lastColumn" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="58"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2284,8 +2269,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Models" displayName="Models" ref="A1:I12" totalsRowShown="0">
-  <autoFilter ref="A1:I12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Models" displayName="Models" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13"/>
   <tableColumns count="9">
     <tableColumn id="9" name="Package" dataDxfId="0"/>
     <tableColumn id="1" name="Name" dataDxfId="1"/>
@@ -2302,37 +2287,82 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Achievement" displayName="Achievement" ref="B4:G13" totalsRowShown="0">
+  <autoFilter ref="B4:G13"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" name="Type" dataDxfId="34"/>
+    <tableColumn id="3" name="Description" dataDxfId="35"/>
+    <tableColumn id="4" name="Tag" dataDxfId="36"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="37"/>
+    <tableColumn id="6" name="Scope" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="AchievementAward" displayName="AchievementAward" ref="B17:G21" totalsRowShown="0">
+  <autoFilter ref="B17:G21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="AchievementState" displayName="AchievementState" ref="B26:G31" totalsRowShown="0">
+  <autoFilter ref="B26:G31"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="AchievementInfo" displayName="AchievementInfo" ref="A24:F27" totalsRowShown="0">
   <autoFilter ref="A24:F27"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="51"/>
-    <tableColumn id="2" name="Type" dataDxfId="52"/>
-    <tableColumn id="3" name="Description" dataDxfId="53"/>
-    <tableColumn id="4" name="Tag" dataDxfId="54"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="55"/>
-    <tableColumn id="6" name="Scope" dataDxfId="56"/>
+    <tableColumn id="1" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" name="Type" dataDxfId="40"/>
+    <tableColumn id="3" name="Description" dataDxfId="41"/>
+    <tableColumn id="4" name="Tag" dataDxfId="42"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="43"/>
+    <tableColumn id="6" name="Scope" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="ACHIEVEMENT_STATUS" displayName="ACHIEVEMENT_STATUS" ref="A14:F18" totalsRowShown="0">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Achievement_Status" displayName="Achievement_Status" ref="A14:F18" totalsRowShown="0">
   <autoFilter ref="A14:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="57"/>
-    <tableColumn id="2" name="Type" dataDxfId="58"/>
-    <tableColumn id="3" name="Description" dataDxfId="59"/>
-    <tableColumn id="4" name="Tag" dataDxfId="60"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="61"/>
-    <tableColumn id="6" name="Scope" dataDxfId="62"/>
+    <tableColumn id="1" name="Name" dataDxfId="45"/>
+    <tableColumn id="2" name="Type" dataDxfId="46"/>
+    <tableColumn id="3" name="Description" dataDxfId="47"/>
+    <tableColumn id="4" name="Tag" dataDxfId="48"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="49"/>
+    <tableColumn id="6" name="Scope" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="ACHIEVEMENT_RESULT" displayName="ACHIEVEMENT_RESULT" ref="A3:F9" totalsRowShown="0">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Achievement_Result" displayName="Achievement_Result" ref="A3:F9" totalsRowShown="0">
   <autoFilter ref="A3:F9"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
@@ -2362,8 +2392,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GetAchievementRewardReq" displayName="GetAchievementRewardReq" ref="A3:F5" totalsRowShown="0">
-  <autoFilter ref="A3:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GetAchievementRewardReq" displayName="GetAchievementRewardReq" ref="A30:F32" totalsRowShown="0">
+  <autoFilter ref="A30:F32"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="15"/>
     <tableColumn id="2" name="Type" dataDxfId="16"/>
@@ -2377,8 +2407,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="GetAchievementRewardRsp" displayName="GetAchievementRewardRsp" ref="A8:F10" totalsRowShown="0">
-  <autoFilter ref="A8:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="GetAchievementRewardRsp" displayName="GetAchievementRewardRsp" ref="A35:F36" totalsRowShown="0">
+  <autoFilter ref="A35:F36"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name" dataDxfId="21"/>
     <tableColumn id="2" name="Type" dataDxfId="22"/>
@@ -2392,14 +2422,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="AchievementDataChangedReq" displayName="AchievementDataChangedReq" ref="A14:F17" totalsRowShown="0">
-  <autoFilter ref="A14:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="NiAchievementService" displayName="NiAchievementService" ref="A3:F6" totalsRowShown="0">
+  <autoFilter ref="A3:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="27"/>
-    <tableColumn id="2" name="Type" dataDxfId="28"/>
-    <tableColumn id="5" name="Description" dataDxfId="29"/>
-    <tableColumn id="3" name="Tag" dataDxfId="30"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="1" name="MethodName" dataDxfId="27"/>
+    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="4" name="Inputs" dataDxfId="29"/>
+    <tableColumn id="2" name="Return" dataDxfId="30"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="31"/>
     <tableColumn id="6" name="Scope" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2407,53 +2437,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="AchievementDataChangedRsp" displayName="AchievementDataChangedRsp" ref="A20:F21" totalsRowShown="0">
-  <autoFilter ref="A20:F21"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" name="Type" dataDxfId="34"/>
-    <tableColumn id="5" name="Description" dataDxfId="35"/>
-    <tableColumn id="3" name="Tag" dataDxfId="36"/>
-    <tableColumn id="4" name="Attributes" dataDxfId="37"/>
-    <tableColumn id="6" name="Scope" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="NiAchievementService" displayName="NiAchievementService" ref="A25:F27" totalsRowShown="0">
-  <autoFilter ref="A25:F27"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="MethodName" dataDxfId="39"/>
-    <tableColumn id="3" name="Description" dataDxfId="40"/>
-    <tableColumn id="4" name="Inputs" dataDxfId="41"/>
-    <tableColumn id="2" name="Return" dataDxfId="42"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="43"/>
-    <tableColumn id="6" name="Scope" dataDxfId="44"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Achievement" displayName="Achievement" ref="B8:G18" totalsRowShown="0">
-  <autoFilter ref="B8:G18"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="45"/>
-    <tableColumn id="2" name="Type" dataDxfId="46"/>
-    <tableColumn id="3" name="Description" dataDxfId="47"/>
-    <tableColumn id="4" name="Tag" dataDxfId="48"/>
-    <tableColumn id="5" name="Attributes" dataDxfId="49"/>
-    <tableColumn id="6" name="Scope" dataDxfId="50"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="AchievementAward" displayName="AchievementAward" ref="B22:G26" totalsRowShown="0">
-  <autoFilter ref="B22:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="GetAchievementsReq" displayName="GetAchievementsReq" ref="A10:F11" totalsRowShown="0">
+  <autoFilter ref="A10:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Type"/>
@@ -2462,7 +2447,52 @@
     <tableColumn id="5" name="Attributes"/>
     <tableColumn id="6" name="Scope"/>
   </tableColumns>
-  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="GetAchievementsRsp" displayName="GetAchievementsRsp" ref="A14:F15" totalsRowShown="0">
+  <autoFilter ref="A14:F15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="UpdateAchievementReq" displayName="UpdateAchievementReq" ref="A19:F22" totalsRowShown="0">
+  <autoFilter ref="A19:F22"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="UpdateAchievementRsp" displayName="UpdateAchievementRsp" ref="A25:F26" totalsRowShown="0">
+  <autoFilter ref="A25:F26"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2724,284 +2754,324 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="2" width="30" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.0833333333333" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="20" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="20" customWidth="1"/>
-    <col min="7" max="8" width="17.3333333333333" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="20"/>
+    <col min="1" max="2" width="30" style="27" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.0833333333333" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.8333333333333" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="27" customWidth="1"/>
+    <col min="7" max="8" width="17.3333333333333" style="27" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="27" customWidth="1"/>
+    <col min="10" max="10" width="9" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="20" t="s">
+      <c r="B4" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="D4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="I4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="C5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="E5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="21" t="s">
+      <c r="C6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="E6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="C7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="E7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="20" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="20" t="s">
+      <c r="I8" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="20" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="20" t="s">
+      <c r="C9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="20" t="s">
+      <c r="C10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="20" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="C11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="20" t="s">
+      <c r="E11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="21" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="E12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="C13" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="D13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="E13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="B17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>14</v>
+      <c r="E17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3090,7 @@
   <dimension ref="A4:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C27:C28"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3032,7 +3102,7 @@
   <sheetData>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3051,10 +3121,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>4</v>
@@ -3062,19 +3132,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" s="14">
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>13</v>
@@ -3082,13 +3152,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" s="14">
         <v>2</v>
@@ -3100,13 +3170,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" s="14">
         <v>3</v>
@@ -3118,9 +3188,9 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3149,10 +3219,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3165,26 +3235,31 @@
     <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="D3" s="14" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>4</v>
@@ -3192,110 +3267,106 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="13" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3309,10 +3380,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>4</v>
@@ -3320,134 +3391,129 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D15" s="14">
         <v>1</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="14">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:6">
+      <c r="A19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="C19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
+    <row r="21" ht="15.75" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="14">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+    <row r="22" ht="15" spans="1:6">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="25">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="D25" s="14" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>4</v>
@@ -3455,74 +3521,161 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F26" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="14">
+        <v>2</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D11">
     <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
     <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
+  <conditionalFormatting sqref="D26">
     <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D32">
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="5">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3530,10 +3683,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B7:G26"/>
+  <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3544,327 +3697,458 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="6.33333333333333" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="13">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="13" t="s">
-        <v>78</v>
-      </c>
       <c r="C10" s="13" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="E10" s="13">
+        <v>6</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="13" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E11" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="13" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E12" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="13" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E13" s="14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="14">
-        <v>6</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="2:7">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="14">
-        <v>7</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="13" t="s">
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="2:7">
+      <c r="B18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="2:7">
+      <c r="B19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="14">
-        <v>8</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="14">
-        <v>9</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="20">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" ht="15" spans="2:7">
+      <c r="B26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="2:7">
+      <c r="B27" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="2:7">
+      <c r="B28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="2:7">
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="D30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" spans="2:7">
-      <c r="B23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="2:7">
-      <c r="B24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="17">
-        <v>2</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="8" t="s">
+    <row r="31" spans="2:7">
+      <c r="B31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="17">
-        <v>3</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="17">
-        <v>4</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>13</v>
-      </c>
+    <row r="32" spans="2:7">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E9:E18">
-    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
+  <conditionalFormatting sqref="E18:E21">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E26">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5 E11:E13">
+    <cfRule type="duplicateValues" dxfId="14" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3875,7 +4159,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3890,7 +4174,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
@@ -3904,10 +4188,10 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>4</v>
@@ -3915,13 +4199,13 @@
     </row>
     <row r="4" ht="15" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -3933,13 +4217,13 @@
     </row>
     <row r="5" ht="15" spans="1:6">
       <c r="A5" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -3950,14 +4234,14 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:6">
-      <c r="A6" t="s">
-        <v>107</v>
+      <c r="A6" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7">
         <v>2</v>
@@ -3968,13 +4252,13 @@
     </row>
     <row r="7" ht="15" spans="1:6">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D7" s="11">
         <v>3</v>
@@ -3985,13 +4269,13 @@
     </row>
     <row r="8" ht="15" spans="1:6">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
         <v>4</v>
@@ -4002,13 +4286,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -4038,10 +4322,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>4</v>
@@ -4049,13 +4333,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D15" s="14">
         <v>0</v>
@@ -4067,13 +4351,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D16" s="14">
         <v>1</v>
@@ -4085,13 +4369,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D17" s="14">
         <v>2</v>
@@ -4103,13 +4387,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="13" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D18" s="14">
         <v>3</v>
@@ -4119,84 +4403,89 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
+    <row r="23" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="D24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="A25" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="17">
         <v>1</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="A26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="17">
         <v>2</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="17">
         <v>3</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Data/Entities/OpenNGS/OpenNGS.Achievement.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Achievement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="9" r:id="rId1"/>
@@ -3221,8 +3221,8 @@
   <sheetPr/>
   <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" ht="15.75" spans="1:6">
+    <row r="20" spans="1:6">
       <c r="A20" s="13" t="s">
         <v>72</v>
       </c>
@@ -3685,8 +3685,8 @@
   <sheetPr/>
   <dimension ref="A3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4159,7 +4159,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
